--- a/Plan for brugerstyring jan-juni.xlsx
+++ b/Plan for brugerstyring jan-juni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Cap\DigiSt\GitHub\trust2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2EBE05-1806-42FB-9010-AA1A700E29CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3D70BC-AAAF-47A0-AF3F-C1433B6A78C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1335" windowWidth="24120" windowHeight="14310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="600" windowWidth="24120" windowHeight="15405" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kalender" sheetId="1" r:id="rId1"/>
@@ -245,14 +245,16 @@
     <t>Kirsten / Poul</t>
   </si>
   <si>
-    <t xml:space="preserve">Garamont 12
-H1 Arial 20 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Resume skal skrives - primo marts </t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Garamont 12
+H1 Arial 20
+H2 Garamond 16
+H3 Garamond 14</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1480,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D6" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D3" s="1"/>
     </row>
